--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437134.2113497507</v>
+        <v>439074.2912195337</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592088</v>
+        <v>925407.278659208</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="C2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>168.1572104236695</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>9.037615104226628</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>145.8355658494304</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>90.07428171382941</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>25.15457984420473</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="X5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="X5" t="n">
-        <v>240.9299003719209</v>
       </c>
       <c r="Y5" t="n">
         <v>274.2838073416025</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>77.14452237127389</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>11.02353771150028</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>37.05763646578577</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>228.6235695504888</v>
       </c>
       <c r="X9" t="n">
-        <v>159.5028127661658</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>109.8303264140372</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>35.72422578294405</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>274.2838073416025</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>112.2356790673109</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>180.7782379014811</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>11.02353771150028</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,70 +1612,70 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>36.36486963835926</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>205.224307868124</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>205.8649517235392</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>35.72422578294405</v>
-      </c>
-      <c r="V14" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="W14" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.07867728478316</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>35.80989422327568</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1746,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.2790546326915</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,67 +1843,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D17" t="n">
+      <c r="H17" t="n">
+        <v>264.3952212715415</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V17" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1929,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>86.50354346547167</v>
@@ -1977,10 +1979,10 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>125.9059726800905</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>135.20731971644</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.27905463269151</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>264.3952212715415</v>
+      </c>
+      <c r="X20" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C20" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>240.9299003719209</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>274.2838073416025</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.18304378027994</v>
+        <v>120.1262555276942</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -2169,13 +2171,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.07907767104379</v>
       </c>
       <c r="J23" t="n">
         <v>0.6592771345624158</v>
@@ -2366,22 +2368,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3039770541652</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>159.5028127661658</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>35.90507490100101</v>
       </c>
     </row>
     <row r="25">
@@ -2491,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>17.27905463269151</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>35.06494864838162</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>87.68355978354153</v>
       </c>
       <c r="X26" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>174.4097407145713</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>240.5305456105214</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>58.53026954800207</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>274.2838073416025</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>81.3376113647972</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -2883,7 +2885,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>19.57939682328597</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
         <v>110.4625155221328</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2992,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>104.7837252564226</v>
+      </c>
+      <c r="F32" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3114,19 +3116,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>97.60278910631378</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>173.7976853918352</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>220.1165444242669</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D35" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>130.8879304055203</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>94.22875100769883</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3506,70 +3508,70 @@
         <v>274.2838073416025</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.5891775064833</v>
       </c>
-      <c r="E38" t="n">
+      <c r="Y38" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>62.95885554607965</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -3600,7 +3602,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>35.90507490100101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>17.96478317550053</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>84.0082687199077</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="43">
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>35.7055925037969</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0.6592771345624158</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="Y44" t="n">
         <v>274.2838073416025</v>
@@ -4059,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>4.740890808464905</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4122,7 +4124,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="46">
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X46" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468.8528235421485</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="C2" t="n">
-        <v>468.8528235421485</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="D2" t="n">
-        <v>468.8528235421485</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E2" t="n">
-        <v>468.8528235421485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F2" t="n">
-        <v>191.7984726920449</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G2" t="n">
         <v>21.9427045873282</v>
@@ -4334,46 +4336,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P2" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q2" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="3">
@@ -4407,52 +4409,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K3" t="n">
-        <v>29.88839882768988</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L3" t="n">
-        <v>277.9660032696079</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M3" t="n">
-        <v>549.5069725377944</v>
+        <v>688.1965482020686</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>959.7375174702552</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838489</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169108</v>
       </c>
       <c r="U3" t="n">
-        <v>1088.006325220726</v>
+        <v>403.5026004348894</v>
       </c>
       <c r="V3" t="n">
-        <v>853.7550817463274</v>
+        <v>169.2513569604902</v>
       </c>
       <c r="W3" t="n">
-        <v>601.2405900796607</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X3" t="n">
-        <v>394.7136914852382</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.9852557088886</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4485,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="I4" t="n">
-        <v>111.6789115850847</v>
+        <v>47.35137109662591</v>
       </c>
       <c r="J4" t="n">
         <v>21.9427045873282</v>
@@ -4492,7 +4494,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4574,16 +4576,16 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623909</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q5" t="n">
         <v>1097.13522936641</v>
@@ -4604,13 +4606,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>820.0808785163064</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="X5" t="n">
-        <v>576.7173427870933</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="Y5" t="n">
-        <v>299.6629919369898</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981.2022424513852</v>
+        <v>430.2291086336401</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>257.4759935554573</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>257.4759935554573</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>99.86646455831195</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>99.86646455831195</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L6" t="n">
-        <v>168.577974491964</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M6" t="n">
-        <v>440.1189437601505</v>
+        <v>688.1965482020686</v>
       </c>
       <c r="N6" t="n">
-        <v>711.659913028337</v>
+        <v>959.7375174702552</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4677,19 +4679,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843887</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>635.9575444099896</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>635.9575444099896</v>
       </c>
       <c r="X6" t="n">
-        <v>1097.13522936641</v>
+        <v>635.9575444099896</v>
       </c>
       <c r="Y6" t="n">
-        <v>1097.13522936641</v>
+        <v>430.2291086336401</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="H7" t="n">
         <v>21.9427045873282</v>
@@ -4729,7 +4731,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4744,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.6719412882472</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C8" t="n">
-        <v>266.6719412882472</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D8" t="n">
-        <v>266.6719412882472</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E8" t="n">
-        <v>266.6719412882472</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F8" t="n">
-        <v>266.6719412882472</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G8" t="n">
-        <v>266.6719412882472</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
         <v>21.9427045873282</v>
@@ -4817,37 +4819,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>266.6719412882472</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.6719412882472</v>
+        <v>576.0514062875354</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="L9" t="n">
-        <v>168.577974491964</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="M9" t="n">
-        <v>277.9660032696079</v>
+        <v>300.8769847019996</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377944</v>
+        <v>572.4179539701861</v>
       </c>
       <c r="O9" t="n">
-        <v>817.386591515115</v>
+        <v>840.2975729475068</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1038.868042782504</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T9" t="n">
-        <v>896.7488334994719</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U9" t="n">
-        <v>669.8223920174504</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V9" t="n">
-        <v>435.5711485430513</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="W9" t="n">
-        <v>183.0566568763846</v>
+        <v>770.5508361223899</v>
       </c>
       <c r="X9" t="n">
-        <v>21.9427045873282</v>
+        <v>564.0239375279674</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695785</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4981,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.9970554374318</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="D11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="E11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="F11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I11" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J11" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L11" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1689795623907</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P11" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q11" t="n">
         <v>1097.13522936641</v>
@@ -5066,25 +5068,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S11" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T11" t="n">
-        <v>889.1908336860672</v>
+        <v>871.9179392690158</v>
       </c>
       <c r="U11" t="n">
-        <v>889.1908336860672</v>
+        <v>617.8999962624052</v>
       </c>
       <c r="V11" t="n">
-        <v>889.1908336860672</v>
+        <v>506.9602726118626</v>
       </c>
       <c r="W11" t="n">
-        <v>889.1908336860672</v>
+        <v>506.9602726118626</v>
       </c>
       <c r="X11" t="n">
-        <v>853.1057571376389</v>
+        <v>506.9602726118626</v>
       </c>
       <c r="Y11" t="n">
-        <v>576.0514062875353</v>
+        <v>229.9059217617589</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>834.4411835366765</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="C12" t="n">
-        <v>721.0718107414129</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="D12" t="n">
-        <v>573.4835041003568</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E12" t="n">
-        <v>415.8739751032115</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F12" t="n">
-        <v>270.9181851198283</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G12" t="n">
-        <v>133.521003094533</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K12" t="n">
-        <v>29.3360154338131</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L12" t="n">
-        <v>274.3046529787421</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M12" t="n">
-        <v>545.8456222469285</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="N12" t="n">
-        <v>817.386591515115</v>
+        <v>549.5069725377946</v>
       </c>
       <c r="O12" t="n">
-        <v>817.386591515115</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="P12" t="n">
         <v>1015.957061350112</v>
@@ -5145,25 +5147,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S12" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838489</v>
       </c>
       <c r="T12" t="n">
-        <v>1001.483734658237</v>
+        <v>630.4290419169108</v>
       </c>
       <c r="U12" t="n">
-        <v>1001.483734658237</v>
+        <v>403.5026004348894</v>
       </c>
       <c r="V12" t="n">
-        <v>1001.483734658237</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="W12" t="n">
-        <v>1001.483734658237</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="X12" t="n">
-        <v>1001.483734658237</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="Y12" t="n">
-        <v>1001.483734658237</v>
+        <v>220.8983197263226</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G13" t="n">
-        <v>21.9427045873282</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="H13" t="n">
         <v>21.9427045873282</v>
@@ -5203,7 +5205,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L13" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M13" t="n">
         <v>108.7246574309869</v>
@@ -5218,31 +5220,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="C14" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="D14" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9970554374318</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F14" t="n">
-        <v>298.9970554374318</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G14" t="n">
-        <v>298.9970554374318</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H14" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I14" t="n">
         <v>21.9427045873282</v>
@@ -5279,19 +5281,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L14" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N14" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P14" t="n">
         <v>1093.116282134284</v>
@@ -5303,25 +5305,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S14" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T14" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U14" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V14" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W14" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X14" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163065</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>981.2022424513852</v>
+        <v>844.6207376997435</v>
       </c>
       <c r="C15" t="n">
         <v>808.4491273732024</v>
@@ -5355,52 +5357,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K15" t="n">
-        <v>168.577974491964</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L15" t="n">
-        <v>416.655578933882</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M15" t="n">
-        <v>549.5069725377944</v>
+        <v>688.1965482020686</v>
       </c>
       <c r="N15" t="n">
-        <v>549.5069725377944</v>
+        <v>959.7375174702552</v>
       </c>
       <c r="O15" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P15" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W15" t="n">
-        <v>1001.483734658237</v>
+        <v>844.6207376997435</v>
       </c>
       <c r="X15" t="n">
-        <v>1001.483734658237</v>
+        <v>844.6207376997435</v>
       </c>
       <c r="Y15" t="n">
-        <v>1001.483734658237</v>
+        <v>844.6207376997435</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9427045873282</v>
+        <v>39.39629512540043</v>
       </c>
       <c r="I16" t="n">
-        <v>21.9427045873282</v>
+        <v>39.39629512540043</v>
       </c>
       <c r="J16" t="n">
         <v>21.9427045873282</v>
@@ -5440,7 +5442,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L16" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M16" t="n">
         <v>108.7246574309869</v>
@@ -5455,31 +5457,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>853.1057571376389</v>
+        <v>566.062935509696</v>
       </c>
       <c r="C17" t="n">
-        <v>576.0514062875353</v>
+        <v>566.062935509696</v>
       </c>
       <c r="D17" t="n">
-        <v>298.9970554374318</v>
+        <v>566.062935509696</v>
       </c>
       <c r="E17" t="n">
-        <v>298.9970554374318</v>
+        <v>566.062935509696</v>
       </c>
       <c r="F17" t="n">
-        <v>21.9427045873282</v>
+        <v>566.062935509696</v>
       </c>
       <c r="G17" t="n">
-        <v>21.9427045873282</v>
+        <v>289.0085846595924</v>
       </c>
       <c r="H17" t="n">
         <v>21.9427045873282</v>
@@ -5528,10 +5530,10 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P17" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q17" t="n">
         <v>1097.13522936641</v>
@@ -5546,19 +5548,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597997</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>566.062935509696</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>566.062935509696</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.13522936641</v>
+        <v>566.062935509696</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.13522936641</v>
+        <v>566.062935509696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>503.251291735001</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="C18" t="n">
-        <v>503.251291735001</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="D18" t="n">
-        <v>503.251291735001</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="E18" t="n">
-        <v>503.251291735001</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2955017516178</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H18" t="n">
         <v>109.3200212191178</v>
@@ -5592,13 +5594,13 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K18" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="L18" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="M18" t="n">
         <v>300.8769847019996</v>
@@ -5610,7 +5612,7 @@
         <v>840.2975729475068</v>
       </c>
       <c r="P18" t="n">
-        <v>1015.957061350112</v>
+        <v>1038.868042782504</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
@@ -5619,25 +5621,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S18" t="n">
-        <v>830.8154377838487</v>
+        <v>830.8154377838489</v>
       </c>
       <c r="T18" t="n">
-        <v>630.4290419169106</v>
+        <v>630.4290419169108</v>
       </c>
       <c r="U18" t="n">
-        <v>503.251291735001</v>
+        <v>403.5026004348894</v>
       </c>
       <c r="V18" t="n">
-        <v>503.251291735001</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="W18" t="n">
-        <v>503.251291735001</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="X18" t="n">
-        <v>503.251291735001</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="Y18" t="n">
-        <v>503.251291735001</v>
+        <v>266.9295502162631</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H19" t="n">
         <v>21.9427045873282</v>
@@ -5677,7 +5679,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M19" t="n">
         <v>108.7246574309869</v>
@@ -5695,28 +5697,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>185.2094439902745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.2094439902745</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>299.6629919369898</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J20" t="n">
         <v>21.9427045873282</v>
@@ -5783,19 +5785,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W20" t="n">
-        <v>853.7716936371969</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X20" t="n">
-        <v>853.7716936371969</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y20" t="n">
-        <v>576.7173427870933</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>644.8494452870956</v>
+        <v>748.8691358362125</v>
       </c>
       <c r="C21" t="n">
-        <v>472.0963302089128</v>
+        <v>576.1160207580297</v>
       </c>
       <c r="D21" t="n">
-        <v>324.5080235678566</v>
+        <v>428.5277141169736</v>
       </c>
       <c r="E21" t="n">
-        <v>166.8984945707113</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5832,13 +5834,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>29.3360154338131</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>300.8769847019996</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N21" t="n">
         <v>549.5069725377944</v>
@@ -5862,19 +5864,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8839858920107</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8839858920107</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8839858920107</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="Y21" t="n">
-        <v>657.1555501156612</v>
+        <v>870.2087878843885</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L22" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M22" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N22" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O22" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.60864108688619</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="C23" t="n">
-        <v>22.60864108688619</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="D23" t="n">
-        <v>22.60864108688619</v>
+        <v>122.688517522284</v>
       </c>
       <c r="E23" t="n">
-        <v>22.60864108688619</v>
+        <v>122.688517522284</v>
       </c>
       <c r="F23" t="n">
-        <v>22.60864108688619</v>
+        <v>122.688517522284</v>
       </c>
       <c r="G23" t="n">
-        <v>22.60864108688619</v>
+        <v>122.688517522284</v>
       </c>
       <c r="H23" t="n">
-        <v>22.60864108688619</v>
+        <v>122.688517522284</v>
       </c>
       <c r="I23" t="n">
         <v>22.60864108688619</v>
@@ -5996,13 +5998,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P23" t="n">
         <v>1093.116282134284</v>
@@ -6014,25 +6016,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S23" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T23" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U23" t="n">
-        <v>491.8892313856415</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V23" t="n">
-        <v>491.8892313856415</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W23" t="n">
-        <v>299.6629919369898</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="X23" t="n">
-        <v>22.60864108688619</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y23" t="n">
-        <v>22.60864108688619</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.9427045873282</v>
+        <v>893.8249258195958</v>
       </c>
       <c r="C24" t="n">
-        <v>21.9427045873282</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="D24" t="n">
-        <v>21.9427045873282</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="E24" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F24" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G24" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H24" t="n">
         <v>21.9427045873282</v>
@@ -6075,13 +6077,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M24" t="n">
-        <v>688.1965482020685</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N24" t="n">
-        <v>748.0774423727912</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O24" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P24" t="n">
         <v>1015.957061350112</v>
@@ -6096,22 +6098,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>669.8223920174504</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V24" t="n">
-        <v>435.5711485430513</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W24" t="n">
-        <v>183.0566568763846</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X24" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.9427045873282</v>
+        <v>1060.867476941156</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H25" t="n">
-        <v>39.39629512540043</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I25" t="n">
-        <v>39.39629512540043</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L25" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M25" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N25" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O25" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.02778113575653</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C26" t="n">
-        <v>58.02778113575653</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D26" t="n">
-        <v>58.02778113575653</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E26" t="n">
-        <v>58.02778113575653</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F26" t="n">
-        <v>58.02778113575653</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G26" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H26" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I26" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J26" t="n">
         <v>21.9427045873282</v>
@@ -6251,25 +6253,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S26" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T26" t="n">
-        <v>889.1908336860672</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U26" t="n">
-        <v>889.1908336860672</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V26" t="n">
-        <v>889.1908336860672</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W26" t="n">
-        <v>889.1908336860672</v>
+        <v>783.348686962408</v>
       </c>
       <c r="X26" t="n">
-        <v>612.1364828359636</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y26" t="n">
-        <v>335.0821319858601</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L27" t="n">
-        <v>29.3360154338131</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M27" t="n">
-        <v>300.8769847019996</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N27" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O27" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P27" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
@@ -6330,22 +6332,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T27" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U27" t="n">
-        <v>920.9637740991661</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V27" t="n">
-        <v>686.7125306247669</v>
+        <v>264.902851668663</v>
       </c>
       <c r="W27" t="n">
-        <v>434.1980389581003</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X27" t="n">
-        <v>227.6711403636777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y27" t="n">
         <v>21.9427045873282</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L28" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M28" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N28" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O28" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6466,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K29" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L29" t="n">
         <v>345.6915471007954</v>
@@ -6488,22 +6490,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S29" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T29" t="n">
-        <v>830.0693492941459</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V29" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="W29" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X29" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y29" t="n">
         <v>298.9970554374318</v>
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>543.2408072152207</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="C30" t="n">
-        <v>543.2408072152207</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D30" t="n">
-        <v>543.2408072152207</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E30" t="n">
-        <v>385.6312782180754</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F30" t="n">
-        <v>240.6754882346923</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G30" t="n">
         <v>220.8983197263226</v>
@@ -6549,10 +6551,10 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M30" t="n">
-        <v>680.8032373555836</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N30" t="n">
-        <v>898.564759531413</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O30" t="n">
         <v>898.564759531413</v>
@@ -6564,28 +6566,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W30" t="n">
-        <v>748.9692429915702</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X30" t="n">
-        <v>748.9692429915702</v>
+        <v>890.6083307719874</v>
       </c>
       <c r="Y30" t="n">
-        <v>543.2408072152207</v>
+        <v>890.6083307719874</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="C31" t="n">
         <v>21.9427045873282</v>
@@ -6640,31 +6642,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R31" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T31" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="V31" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="W31" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="X31" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>820.0808785163064</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="C32" t="n">
-        <v>543.0265276662028</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="D32" t="n">
-        <v>543.0265276662028</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="E32" t="n">
-        <v>543.0265276662028</v>
+        <v>783.348686962408</v>
       </c>
       <c r="F32" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G32" t="n">
-        <v>265.9721768160992</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I32" t="n">
         <v>21.9427045873282</v>
@@ -6725,25 +6727,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W32" t="n">
-        <v>820.0808785163064</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="X32" t="n">
-        <v>820.0808785163064</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="Y32" t="n">
-        <v>820.0808785163064</v>
+        <v>889.1908336860672</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.2841263065671</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="C33" t="n">
-        <v>169.5310112283843</v>
+        <v>658.0623227056658</v>
       </c>
       <c r="D33" t="n">
-        <v>21.9427045873282</v>
+        <v>510.4740160646097</v>
       </c>
       <c r="E33" t="n">
-        <v>21.9427045873282</v>
+        <v>352.8644870674643</v>
       </c>
       <c r="F33" t="n">
-        <v>21.9427045873282</v>
+        <v>207.9086970840812</v>
       </c>
       <c r="G33" t="n">
-        <v>21.9427045873282</v>
+        <v>207.9086970840812</v>
       </c>
       <c r="H33" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I33" t="n">
         <v>21.9427045873282</v>
@@ -6780,49 +6782,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K33" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L33" t="n">
-        <v>29.3360154338131</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M33" t="n">
-        <v>300.8769847019996</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N33" t="n">
-        <v>572.4179539701861</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O33" t="n">
-        <v>840.2975729475068</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
-        <v>1038.868042782504</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R33" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S33" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T33" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U33" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V33" t="n">
-        <v>921.5820117988997</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W33" t="n">
-        <v>921.5820117988997</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="X33" t="n">
-        <v>715.0551132044772</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="Y33" t="n">
-        <v>509.3266774281276</v>
+        <v>830.8154377838487</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C35" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I35" t="n">
         <v>21.9427045873282</v>
@@ -6959,28 +6961,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="X35" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="Y35" t="n">
-        <v>853.1057571376389</v>
+        <v>728.6342799752003</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.9427045873282</v>
+        <v>638.0938391053207</v>
       </c>
       <c r="C36" t="n">
-        <v>21.9427045873282</v>
+        <v>638.0938391053207</v>
       </c>
       <c r="D36" t="n">
-        <v>21.9427045873282</v>
+        <v>490.5055324642646</v>
       </c>
       <c r="E36" t="n">
-        <v>21.9427045873282</v>
+        <v>490.5055324642646</v>
       </c>
       <c r="F36" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G36" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H36" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I36" t="n">
         <v>21.9427045873282</v>
@@ -7017,49 +7019,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L36" t="n">
-        <v>29.3360154338131</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M36" t="n">
-        <v>277.9660032696079</v>
+        <v>627.0237902632265</v>
       </c>
       <c r="N36" t="n">
-        <v>549.5069725377944</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O36" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P36" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R36" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>603.8889963018272</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V36" t="n">
-        <v>369.6377528274281</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W36" t="n">
-        <v>117.1232611607614</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X36" t="n">
-        <v>21.9427045873282</v>
+        <v>638.0938391053207</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.9427045873282</v>
+        <v>638.0938391053207</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7122,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T37" t="n">
         <v>21.9427045873282</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C38" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D38" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E38" t="n">
         <v>21.9427045873282</v>
@@ -7214,10 +7216,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>893.8249258195958</v>
+        <v>566.8460953168997</v>
       </c>
       <c r="C39" t="n">
-        <v>721.0718107414129</v>
+        <v>566.8460953168997</v>
       </c>
       <c r="D39" t="n">
-        <v>573.4835041003568</v>
+        <v>566.8460953168997</v>
       </c>
       <c r="E39" t="n">
-        <v>415.8739751032115</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F39" t="n">
-        <v>270.9181851198283</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G39" t="n">
-        <v>133.521003094533</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H39" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L39" t="n">
-        <v>409.2622680873972</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M39" t="n">
-        <v>557.7146411209028</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N39" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O39" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P39" t="n">
         <v>1097.13522936641</v>
@@ -7275,28 +7277,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T39" t="n">
-        <v>1097.13522936641</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U39" t="n">
-        <v>1097.13522936641</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="V39" t="n">
-        <v>1097.13522936641</v>
+        <v>566.8460953168997</v>
       </c>
       <c r="W39" t="n">
-        <v>1097.13522936641</v>
+        <v>566.8460953168997</v>
       </c>
       <c r="X39" t="n">
-        <v>1097.13522936641</v>
+        <v>566.8460953168997</v>
       </c>
       <c r="Y39" t="n">
-        <v>1060.867476941156</v>
+        <v>566.8460953168997</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N40" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O40" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X40" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.9427045873282</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="C41" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="D41" t="n">
-        <v>21.9427045873282</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
@@ -7439,22 +7441,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T41" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U41" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V41" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W41" t="n">
-        <v>820.0808785163064</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="X41" t="n">
-        <v>543.0265276662028</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="Y41" t="n">
-        <v>265.9721768160992</v>
+        <v>871.9179392690156</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>729.7062823779114</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>556.9531672997286</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>409.3648606586725</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>251.7553316615272</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>106.7995416781441</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
         <v>21.9427045873282</v>
@@ -7491,49 +7493,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K42" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L42" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>548.9545891439176</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N42" t="n">
-        <v>820.4955584121041</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O42" t="n">
-        <v>1088.375177389425</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P42" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S42" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T42" t="n">
-        <v>896.7488334994719</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U42" t="n">
-        <v>896.7488334994719</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V42" t="n">
-        <v>896.7488334994719</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W42" t="n">
-        <v>896.7488334994719</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X42" t="n">
-        <v>896.7488334994719</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y42" t="n">
-        <v>896.7488334994719</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7594,13 +7596,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V43" t="n">
         <v>21.9427045873282</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>543.0265276662028</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C44" t="n">
-        <v>543.0265276662028</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D44" t="n">
-        <v>543.0265276662028</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E44" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F44" t="n">
-        <v>265.9721768160992</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G44" t="n">
-        <v>265.9721768160992</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H44" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I44" t="n">
         <v>22.60864108688619</v>
@@ -7655,13 +7657,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P44" t="n">
         <v>1093.116282134284</v>
@@ -7688,10 +7690,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="Y44" t="n">
-        <v>820.0808785163064</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>256.9083278601739</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>256.9083278601739</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I45" t="n">
         <v>21.9427045873282</v>
@@ -7728,10 +7730,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0665668439877</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L45" t="n">
-        <v>359.1441712859057</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M45" t="n">
         <v>359.1441712859057</v>
@@ -7752,25 +7754,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>926.4669324920217</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V45" t="n">
-        <v>921.6781538976127</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W45" t="n">
-        <v>669.163662230946</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X45" t="n">
-        <v>462.6367636365235</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y45" t="n">
-        <v>256.9083278601739</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7843,7 +7845,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X46" t="n">
         <v>21.9427045873282</v>
@@ -7982,7 +7984,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324685</v>
       </c>
       <c r="M2" t="n">
         <v>467.4940748325458</v>
@@ -8058,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.953366024118</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8222,13 +8224,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325459</v>
       </c>
       <c r="N5" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P5" t="n">
         <v>334.6706564983419</v>
@@ -8298,22 +8300,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N6" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>245.8259630674526</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8465,10 +8467,10 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O8" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P8" t="n">
-        <v>334.6706564983419</v>
+        <v>334.6706564983421</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8532,13 +8534,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>249.0736414352243</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
@@ -8550,7 +8552,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>195.3379737580188</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8690,10 +8692,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740115</v>
       </c>
       <c r="L11" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
         <v>467.4940748325458</v>
@@ -8769,19 +8771,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>382.5335885125784</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>402.3419766228525</v>
+        <v>262.2514961538889</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -8927,7 +8929,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -8945,7 +8947,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863012</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9012,19 +9014,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>272.7740099466066</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9182,7 +9184,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9249,7 +9251,7 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M18" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N18" t="n">
         <v>402.3419766228525</v>
@@ -9258,10 +9260,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>308.0588738982702</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>195.3379737580188</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9480,16 +9482,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>412.8644904155703</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N21" t="n">
-        <v>379.1995711355881</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9723,16 +9725,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5439209688487</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
         <v>218.4803792452831</v>
@@ -9954,16 +9956,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>379.1995711355881</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9972,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10112,10 +10114,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L29" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
         <v>467.4940748325458</v>
@@ -10197,13 +10199,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0193027921887</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
         <v>331.2012793855346</v>
@@ -10428,25 +10430,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>340.5513120381636</v>
       </c>
       <c r="O33" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.3379737580186</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10665,25 +10667,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>389.722084928306</v>
+        <v>351.0738258308815</v>
       </c>
       <c r="N36" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,25 +10901,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>288.5325750270039</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>402.3419766228525</v>
+        <v>210.6142818167799</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>136.482229733871</v>
@@ -11078,7 +11080,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11139,25 +11141,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>412.8644904155703</v>
+        <v>269.0756763194694</v>
       </c>
       <c r="N42" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O42" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11376,13 +11378,13 @@
         <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>224.4195062895551</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N45" t="n">
         <v>402.3419766228525</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4326026497926</v>
+        <v>142.1272324849117</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>246.6975549801614</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>215.6195619629746</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.1537809005696</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>63.68426508357422</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>63.6842650835742</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22805,7 +22807,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,10 +22846,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>76.2463096589521</v>
+        <v>108.9409394940712</v>
       </c>
       <c r="X5" t="n">
-        <v>129.9316987592485</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y5" t="n">
         <v>112.4032644096333</v>
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>58.87868783376842</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22917,10 +22919,10 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
@@ -22929,7 +22931,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22954,10 +22956,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6340720089168</v>
+        <v>150.6105342974166</v>
       </c>
       <c r="I7" t="n">
         <v>153.7585467974036</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -23036,10 +23038,10 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0862669223676</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23084,10 +23086,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>129.272421624686</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -23112,13 +23114,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>21.36577719951129</v>
       </c>
       <c r="X9" t="n">
-        <v>44.95881684231247</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
@@ -23276,10 +23278,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>218.7028951084821</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>335.1373733482253</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>112.4032644096333</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>58.7899048600901</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>51.13049313817405</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -23428,10 +23430,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>150.6105342974166</v>
       </c>
       <c r="I13" t="n">
         <v>153.7585467974036</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
         <v>222.3574069614225</v>
@@ -23498,22 +23500,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>370.9289938421816</v>
       </c>
       <c r="G14" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23543,25 +23545,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>215.7535377936004</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.2934483255617</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>135.2156897041253</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -23634,7 +23636,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23668,13 +23670,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>71.55979029508744</v>
       </c>
       <c r="K16" t="n">
         <v>14.77440971783335</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>73.74868211661186</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
@@ -23786,10 +23788,10 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>54.2494141809168</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23817,16 +23819,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23865,10 +23867,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>98.75120438711075</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>96.7014113232151</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
@@ -23905,7 +23907,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I19" t="n">
         <v>153.7585467974036</v>
@@ -23935,10 +23937,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
-        <v>156.1120930370908</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -23990,7 +23992,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24023,16 +24025,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>109.6002166286337</v>
+        <v>86.13489572901312</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y20" t="n">
         <v>112.4032644096333</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>153.1890818300649</v>
+        <v>45.24587008265065</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24057,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24102,10 +24104,10 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -24114,7 +24116,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -24178,13 +24180,13 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>49.41933934989927</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U22" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24206,10 +24208,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24224,7 +24226,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>106.1452301970802</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>160.2261399463894</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>86.50354346547167</v>
@@ -24336,22 +24338,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>44.95881684231247</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>167.766076517585</v>
       </c>
     </row>
     <row r="25">
@@ -24379,13 +24381,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I25" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>71.55979029508742</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K25" t="n">
         <v>14.77440971783335</v>
@@ -24418,7 +24420,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494558</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24455,16 +24457,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>379.7898167554493</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.4777635765444</v>
@@ -24503,13 +24505,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>262.8465572170131</v>
       </c>
       <c r="X26" t="n">
         <v>96.5777917895669</v>
       </c>
       <c r="Y26" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24570,25 +24572,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>50.24743635262988</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>9.458801139478595</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -24649,13 +24651,13 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494558</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24728,13 +24730,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>164.4348476484183</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
         <v>54.24941418091686</v>
@@ -24743,10 +24745,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>145.0978942447525</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>84.03451424554763</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>116.4438133817563</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
         <v>168.9616139056444</v>
@@ -24819,13 +24821,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>68.18412616544215</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24880,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S31" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T31" t="n">
         <v>228.3324659915077</v>
@@ -24917,25 +24919,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>278.3343104988649</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G32" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H32" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0.6592771345624158</v>
@@ -24965,7 +24967,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>222.9651171964204</v>
@@ -24977,7 +24979,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25002,19 +25004,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>12.859726415819</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.3825319082687</v>
@@ -25053,16 +25055,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>58.11104564781996</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -25135,13 +25137,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>163.5998655671282</v>
       </c>
       <c r="C35" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -25169,10 +25171,10 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0.6592771345624158</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
@@ -25220,7 +25222,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.0978942447525</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25236,22 +25238,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>12.61830167802901</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>110.2328786007794</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -25360,10 +25362,10 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T37" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
         <v>286.0522703910642</v>
@@ -25394,10 +25396,10 @@
         <v>92.70128833734015</v>
       </c>
       <c r="D38" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25454,10 +25456,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>129.272421624686</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>93.07457816109417</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -25536,7 +25538,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>167.766076517585</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25602,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T40" t="n">
-        <v>49.41933934989927</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
         <v>286.0522703910642</v>
@@ -25615,7 +25617,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>349.0203125034421</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.4777635765444</v>
@@ -25688,13 +25690,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>52.01494148513461</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
         <v>110.4625155221328</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25836,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
         <v>228.3324659915077</v>
@@ -25843,7 +25845,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25871,19 +25873,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F44" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>302.4383108843565</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>129.9316987592485</v>
       </c>
       <c r="Y44" t="n">
         <v>112.4032644096333</v>
@@ -25947,7 +25949,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -25962,7 +25964,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,16 +25994,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>227.1678402311902</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="46">
@@ -26083,10 +26085,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>511008.7105087347</v>
+        <v>511008.7105087348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511008.7105087347</v>
+        <v>511008.7105087348</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>511008.7105087347</v>
+        <v>511008.7105087348</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>511008.7105087348</v>
+        <v>511008.7105087346</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>511008.7105087348</v>
+        <v>511008.7105087347</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511008.7105087347</v>
+        <v>511008.7105087346</v>
       </c>
     </row>
     <row r="16">
@@ -26320,7 +26322,7 @@
         <v>112565.130497528</v>
       </c>
       <c r="E2" t="n">
-        <v>112565.1304975279</v>
+        <v>112565.130497528</v>
       </c>
       <c r="F2" t="n">
         <v>112565.130497528</v>
@@ -26353,7 +26355,7 @@
         <v>112565.130497528</v>
       </c>
       <c r="P2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808624</v>
+        <v>71764.71248808625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>17659.22691552231</v>
       </c>
       <c r="C4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="D4" t="n">
         <v>17659.22691552232</v>
@@ -26433,19 +26435,19 @@
         <v>17659.22691552232</v>
       </c>
       <c r="H4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="I4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="J4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="K4" t="n">
         <v>17659.22691552231</v>
       </c>
       <c r="L4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="M4" t="n">
         <v>17659.22691552232</v>
@@ -26454,10 +26456,10 @@
         <v>17659.22691552231</v>
       </c>
       <c r="O4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="P4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47316.96427210362</v>
+        <v>-47316.96427210359</v>
       </c>
       <c r="C6" t="n">
+        <v>44601.84809563626</v>
+      </c>
+      <c r="D6" t="n">
         <v>44601.84809563623</v>
       </c>
-      <c r="D6" t="n">
-        <v>44601.84809563625</v>
-      </c>
       <c r="E6" t="n">
-        <v>78229.44809563618</v>
+        <v>78229.44809563624</v>
       </c>
       <c r="F6" t="n">
+        <v>78229.44809563622</v>
+      </c>
+      <c r="G6" t="n">
+        <v>78229.44809563622</v>
+      </c>
+      <c r="H6" t="n">
         <v>78229.44809563624</v>
       </c>
-      <c r="G6" t="n">
-        <v>78229.44809563621</v>
-      </c>
-      <c r="H6" t="n">
-        <v>78229.44809563621</v>
-      </c>
       <c r="I6" t="n">
-        <v>78229.44809563621</v>
+        <v>78229.44809563624</v>
       </c>
       <c r="J6" t="n">
-        <v>6464.735607549977</v>
+        <v>6464.735607549999</v>
       </c>
       <c r="K6" t="n">
-        <v>78229.44809563621</v>
+        <v>78229.44809563627</v>
       </c>
       <c r="L6" t="n">
-        <v>78229.44809563624</v>
+        <v>78229.44809563625</v>
       </c>
       <c r="M6" t="n">
         <v>78229.44809563624</v>
@@ -26558,10 +26560,10 @@
         <v>78229.44809563624</v>
       </c>
       <c r="O6" t="n">
-        <v>78229.44809563624</v>
+        <v>78229.44809563625</v>
       </c>
       <c r="P6" t="n">
-        <v>78229.44809563624</v>
+        <v>78229.44809563621</v>
       </c>
     </row>
   </sheetData>
@@ -34702,7 +34704,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
-        <v>204.4954085367308</v>
+        <v>204.495408536731</v>
       </c>
       <c r="M2" t="n">
         <v>242.9064974359549</v>
@@ -34778,7 +34780,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5579630241179641</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
@@ -34787,16 +34789,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>242.9064974359549</v>
+        <v>242.906497435955</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P5" t="n">
         <v>109.2184856369541</v>
@@ -35018,7 +35020,7 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
@@ -35027,13 +35029,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>106.7946247341192</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O8" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2184856369541</v>
+        <v>109.2184856369543</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35252,13 +35254,13 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>110.4929583612564</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
@@ -35270,7 +35272,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>58.8557440241478</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051554</v>
       </c>
       <c r="L11" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
         <v>242.9064974359549</v>
@@ -35489,19 +35491,19 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>247.443068227201</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726389</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
         <v>200.5762321565626</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L14" t="n">
         <v>204.4954085367308</v>
@@ -35665,7 +35667,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712941</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P15" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>177.4338266692982</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.99814951141209</v>
+        <v>58.8557440241478</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N21" t="n">
-        <v>251.1414018543382</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
@@ -36443,16 +36445,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N24" t="n">
-        <v>60.48575168759873</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
         <v>81.99814951141209</v>
@@ -36674,16 +36676,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>251.1414018543382</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
@@ -36692,7 +36694,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L29" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M29" t="n">
         <v>242.9064974359549</v>
@@ -36917,13 +36919,13 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>219.9611335109387</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
         <v>200.5762321565626</v>
@@ -37148,25 +37150,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="O33" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.85574402414757</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>251.1414018543382</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="N36" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O36" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>149.951891953036</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2838073416025</v>
+        <v>82.55611253552989</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2838073416025</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="N42" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O42" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>90.02410328955507</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N45" t="n">
         <v>274.2838073416025</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439074.2912195337</v>
+        <v>341243.0988234894</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.278659208</v>
+        <v>925407.2786592089</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17533693.5348838</v>
+        <v>17533693.53488381</v>
       </c>
     </row>
     <row r="9">
@@ -658,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S2" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D2" t="n">
+      <c r="W2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8.672776297487738</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>145.8355658494304</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.15457984420473</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>111.3996189472595</v>
       </c>
       <c r="G6" t="n">
-        <v>77.14452237127389</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02353771150028</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C8" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>14.2515927007277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>25.73213560183936</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>228.6235695504888</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>122.5443985706642</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>109.8303264140372</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>71.04888681521369</v>
       </c>
       <c r="U12" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>180.7782379014811</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.02353771150028</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1609,73 +1609,73 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D14" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F14" t="n">
-        <v>36.36486963835926</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>35.80989422327568</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>64.42970776240858</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.2790546326915</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1858,11 +1858,11 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H17" t="n">
-        <v>264.3952212715415</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>274.2838073416025</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>63.79733284275972</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>135.20731971644</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>87.04291592812621</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W20" t="n">
-        <v>264.3952212715415</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.1262555276942</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>274.2838073416025</v>
@@ -2332,16 +2332,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>99.07907767104379</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>87.04291592812621</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="Y24" t="n">
-        <v>35.90507490100101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>18.62406031006298</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G26" t="n">
         <v>274.2838073416025</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W26" t="n">
-        <v>87.68355978354153</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>207.8457863956487</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>240.5305456105214</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>86.38363879356378</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.3376113647972</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>104.7837252564226</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>274.2838073416025</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>97.60278910631378</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>199.7419103973702</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.1165444242669</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,55 +3283,55 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="I35" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>141.8508227008771</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>222.9651171964204</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>130.8879304055203</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>113.429186722532</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C38" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>240.9299003719209</v>
+      </c>
+      <c r="V38" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X38" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>62.95885554607965</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>166.3662846642169</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>17.96478317550053</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="E41" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="F41" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
         <v>222.9651171964204</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>218.8166234342893</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>54.99097162890173</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>58.72873530486501</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X44" t="n">
-        <v>240.9299003719209</v>
+        <v>240.9299003719208</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>51.17072064072048</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4121,10 +4121,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>153.4237150659563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>853.1057571376391</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C2" t="n">
-        <v>576.0514062875354</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D2" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E2" t="n">
         <v>21.9427045873282</v>
@@ -4336,46 +4336,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.13522936641</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.13522936641</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.9427045873282</v>
+        <v>203.4561997639835</v>
       </c>
       <c r="C3" t="n">
-        <v>21.9427045873282</v>
+        <v>30.70308468580066</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9427045873282</v>
+        <v>30.70308468580066</v>
       </c>
       <c r="E3" t="n">
-        <v>21.9427045873282</v>
+        <v>30.70308468580066</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9427045873282</v>
+        <v>30.70308468580066</v>
       </c>
       <c r="G3" t="n">
         <v>21.9427045873282</v>
@@ -4409,52 +4409,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>168.5779744919641</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>416.6555789338821</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="M3" t="n">
-        <v>688.1965482020686</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N3" t="n">
-        <v>959.7375174702552</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838489</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>630.4290419169108</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U3" t="n">
-        <v>403.5026004348894</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V3" t="n">
-        <v>169.2513569604902</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="W3" t="n">
-        <v>21.9427045873282</v>
+        <v>409.983098358406</v>
       </c>
       <c r="X3" t="n">
-        <v>21.9427045873282</v>
+        <v>203.4561997639835</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.9427045873282</v>
+        <v>203.4561997639835</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
         <v>21.9427045873282</v>
@@ -4494,7 +4494,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4521,19 +4521,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C5" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D5" t="n">
         <v>21.9427045873282</v>
@@ -4576,43 +4576,43 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W5" t="n">
-        <v>853.1057571376391</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X5" t="n">
-        <v>576.0514062875354</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.9970554374318</v>
+        <v>853.1057571376389</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430.2291086336401</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="C6" t="n">
-        <v>257.4759935554573</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="D6" t="n">
-        <v>257.4759935554573</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="E6" t="n">
-        <v>99.86646455831195</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="F6" t="n">
-        <v>99.86646455831195</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H6" t="n">
         <v>21.9427045873282</v>
@@ -4646,25 +4646,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.5779744919641</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>416.6555789338821</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>688.1965482020686</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N6" t="n">
-        <v>959.7375174702552</v>
+        <v>952.3442066237701</v>
       </c>
       <c r="O6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4679,19 +4679,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>870.2087878843887</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V6" t="n">
-        <v>635.9575444099896</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W6" t="n">
-        <v>635.9575444099896</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X6" t="n">
-        <v>635.9575444099896</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="Y6" t="n">
-        <v>430.2291086336401</v>
+        <v>383.4430527433227</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>33.07759116460122</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
         <v>21.9427045873282</v>
@@ -4731,7 +4731,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4758,19 +4758,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E8" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I8" t="n">
         <v>21.9427045873282</v>
@@ -4822,34 +4822,34 @@
         <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="X8" t="n">
-        <v>853.1057571376391</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y8" t="n">
-        <v>576.0514062875354</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>358.2955017516178</v>
+        <v>834.4411835366765</v>
       </c>
       <c r="C9" t="n">
-        <v>358.2955017516178</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D9" t="n">
-        <v>358.2955017516178</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E9" t="n">
-        <v>358.2955017516178</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
         <v>358.2955017516178</v>
@@ -4883,25 +4883,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L9" t="n">
-        <v>29.33601543381311</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M9" t="n">
-        <v>300.8769847019996</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N9" t="n">
-        <v>572.4179539701861</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O9" t="n">
-        <v>840.2975729475068</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
-        <v>1038.868042782504</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4922,13 +4922,13 @@
         <v>1001.483734658237</v>
       </c>
       <c r="W9" t="n">
-        <v>770.5508361223899</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="X9" t="n">
-        <v>564.0239375279674</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="Y9" t="n">
-        <v>358.2955017516178</v>
+        <v>1001.483734658237</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695785</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4992,22 +4992,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6086410868862</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J11" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>143.2410926494321</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q11" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>1097.13522936641</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="T11" t="n">
-        <v>871.9179392690158</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="U11" t="n">
-        <v>617.8999962624052</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V11" t="n">
-        <v>506.9602726118626</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W11" t="n">
-        <v>506.9602726118626</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X11" t="n">
-        <v>506.9602726118626</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y11" t="n">
-        <v>229.9059217617589</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>220.8983197263226</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="C12" t="n">
-        <v>220.8983197263226</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K12" t="n">
-        <v>168.5779744919641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L12" t="n">
-        <v>416.6555789338821</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M12" t="n">
-        <v>416.6555789338821</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N12" t="n">
-        <v>549.5069725377946</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O12" t="n">
-        <v>817.3865915151152</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P12" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>830.8154377838489</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T12" t="n">
-        <v>630.4290419169108</v>
+        <v>854.700380153422</v>
       </c>
       <c r="U12" t="n">
-        <v>403.5026004348894</v>
+        <v>627.7739386714005</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8983197263226</v>
+        <v>627.7739386714005</v>
       </c>
       <c r="W12" t="n">
-        <v>220.8983197263226</v>
+        <v>375.2594470047338</v>
       </c>
       <c r="X12" t="n">
-        <v>220.8983197263226</v>
+        <v>375.2594470047338</v>
       </c>
       <c r="Y12" t="n">
-        <v>220.8983197263226</v>
+        <v>169.5310112283843</v>
       </c>
     </row>
     <row r="13">
@@ -5181,16 +5181,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="D13" t="n">
-        <v>202.6630345283467</v>
+        <v>170.401920923893</v>
       </c>
       <c r="E13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G13" t="n">
-        <v>33.07759116460122</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
         <v>21.9427045873282</v>
@@ -5205,7 +5205,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L13" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M13" t="n">
         <v>108.7246574309869</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>820.0808785163065</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C14" t="n">
-        <v>820.0808785163065</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D14" t="n">
-        <v>543.0265276662028</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E14" t="n">
         <v>265.9721768160992</v>
       </c>
       <c r="F14" t="n">
-        <v>229.2399852622009</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G14" t="n">
-        <v>229.2399852622009</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H14" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
         <v>21.9427045873282</v>
@@ -5317,13 +5317,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W14" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X14" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y14" t="n">
-        <v>820.0808785163065</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>844.6207376997435</v>
+        <v>231.9790074620331</v>
       </c>
       <c r="C15" t="n">
-        <v>808.4491273732024</v>
+        <v>231.9790074620331</v>
       </c>
       <c r="D15" t="n">
-        <v>660.8608207321463</v>
+        <v>231.9790074620331</v>
       </c>
       <c r="E15" t="n">
-        <v>503.251291735001</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H15" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K15" t="n">
-        <v>168.5779744919641</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L15" t="n">
-        <v>416.6555789338821</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M15" t="n">
-        <v>688.1965482020686</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N15" t="n">
-        <v>959.7375174702552</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O15" t="n">
         <v>1097.13522936641</v>
@@ -5387,22 +5387,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U15" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V15" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="W15" t="n">
-        <v>844.6207376997435</v>
+        <v>644.2343418328052</v>
       </c>
       <c r="X15" t="n">
-        <v>844.6207376997435</v>
+        <v>437.7074432383827</v>
       </c>
       <c r="Y15" t="n">
-        <v>844.6207376997435</v>
+        <v>231.9790074620331</v>
       </c>
     </row>
     <row r="16">
@@ -5424,16 +5424,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="F16" t="n">
-        <v>202.6630345283467</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>39.39629512540043</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>39.39629512540043</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
         <v>21.9427045873282</v>
@@ -5442,7 +5442,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L16" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M16" t="n">
         <v>108.7246574309869</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G17" t="n">
-        <v>289.0085846595924</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H17" t="n">
         <v>21.9427045873282</v>
@@ -5530,37 +5530,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q17" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>843.1172863597997</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y17" t="n">
-        <v>566.062935509696</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>266.9295502162631</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="C18" t="n">
-        <v>266.9295502162631</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D18" t="n">
-        <v>266.9295502162631</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>29.33601543381311</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>29.33601543381311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>300.8769847019996</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N18" t="n">
-        <v>572.4179539701861</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O18" t="n">
-        <v>840.2975729475068</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P18" t="n">
-        <v>1038.868042782504</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>830.8154377838489</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T18" t="n">
-        <v>630.4290419169108</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U18" t="n">
-        <v>403.5026004348894</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V18" t="n">
-        <v>266.9295502162631</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="W18" t="n">
-        <v>266.9295502162631</v>
+        <v>439.7011973509558</v>
       </c>
       <c r="X18" t="n">
-        <v>266.9295502162631</v>
+        <v>439.7011973509558</v>
       </c>
       <c r="Y18" t="n">
-        <v>266.9295502162631</v>
+        <v>233.9727615746063</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F19" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G19" t="n">
         <v>21.9427045873282</v>
@@ -5679,7 +5679,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M19" t="n">
         <v>108.7246574309869</v>
@@ -5700,25 +5700,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.9427045873282</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="C20" t="n">
-        <v>21.9427045873282</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="D20" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E20" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F20" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G20" t="n">
         <v>21.9427045873282</v>
@@ -5779,25 +5779,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U20" t="n">
-        <v>843.1172863597994</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="V20" t="n">
-        <v>843.1172863597994</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="W20" t="n">
-        <v>576.0514062875353</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="X20" t="n">
-        <v>298.9970554374318</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.9427045873282</v>
+        <v>386.9191927385693</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>748.8691358362125</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C21" t="n">
-        <v>576.1160207580297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D21" t="n">
-        <v>428.5277141169736</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E21" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F21" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5831,25 +5831,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L21" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M21" t="n">
-        <v>549.5069725377944</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N21" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O21" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P21" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.13522936641</v>
@@ -5864,19 +5864,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>870.2087878843885</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V21" t="n">
-        <v>870.2087878843885</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W21" t="n">
-        <v>870.2087878843885</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X21" t="n">
-        <v>870.2087878843885</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y21" t="n">
-        <v>870.2087878843885</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="22">
@@ -5946,13 +5946,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y22" t="n">
         <v>21.9427045873282</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>676.7972192224911</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C23" t="n">
-        <v>399.7428683723875</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D23" t="n">
-        <v>122.688517522284</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E23" t="n">
-        <v>122.688517522284</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F23" t="n">
-        <v>122.688517522284</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G23" t="n">
-        <v>122.688517522284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H23" t="n">
-        <v>122.688517522284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I23" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J23" t="n">
         <v>21.9427045873282</v>
@@ -5998,13 +5998,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P23" t="n">
         <v>1093.116282134284</v>
@@ -6013,28 +6013,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R23" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S23" t="n">
-        <v>953.8515700725947</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T23" t="n">
-        <v>953.8515700725947</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U23" t="n">
-        <v>953.8515700725947</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V23" t="n">
-        <v>953.8515700725947</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W23" t="n">
-        <v>676.7972192224911</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X23" t="n">
-        <v>676.7972192224911</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y23" t="n">
-        <v>676.7972192224911</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>893.8249258195958</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>721.0718107414129</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
-        <v>573.4835041003568</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H24" t="n">
         <v>21.9427045873282</v>
@@ -6098,22 +6098,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U24" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V24" t="n">
-        <v>1097.13522936641</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W24" t="n">
-        <v>1097.13522936641</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X24" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y24" t="n">
-        <v>1060.867476941156</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C25" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D25" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E25" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L25" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M25" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N25" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O25" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X25" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.2943361123045</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="C26" t="n">
-        <v>506.2943361123045</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="D26" t="n">
-        <v>506.2943361123045</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="E26" t="n">
-        <v>506.2943361123045</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F26" t="n">
-        <v>506.2943361123045</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G26" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H26" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I26" t="n">
         <v>21.9427045873282</v>
@@ -6262,16 +6262,16 @@
         <v>871.9179392690156</v>
       </c>
       <c r="V26" t="n">
-        <v>871.9179392690156</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="W26" t="n">
-        <v>783.348686962408</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="X26" t="n">
-        <v>506.2943361123045</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.2943361123045</v>
+        <v>594.8635884189121</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.9427045873282</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C27" t="n">
         <v>21.9427045873282</v>
@@ -6308,22 +6308,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>168.577974491964</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L27" t="n">
-        <v>416.655578933882</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M27" t="n">
-        <v>416.655578933882</v>
+        <v>300.8769847019996</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6851405540922</v>
+        <v>572.4179539701861</v>
       </c>
       <c r="O27" t="n">
-        <v>898.564759531413</v>
+        <v>840.2975729475068</v>
       </c>
       <c r="P27" t="n">
-        <v>1097.13522936641</v>
+        <v>1038.868042782504</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
@@ -6332,25 +6332,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U27" t="n">
-        <v>499.1540951430621</v>
+        <v>887.1899905829264</v>
       </c>
       <c r="V27" t="n">
-        <v>264.902851668663</v>
+        <v>652.9387471085272</v>
       </c>
       <c r="W27" t="n">
-        <v>21.9427045873282</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="X27" t="n">
-        <v>21.9427045873282</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.9427045873282</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E28" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L28" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M28" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O28" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.9427045873282</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="C29" t="n">
-        <v>21.9427045873282</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="D29" t="n">
-        <v>21.9427045873282</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="E29" t="n">
-        <v>21.9427045873282</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="F29" t="n">
-        <v>21.9427045873282</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="G29" t="n">
-        <v>21.9427045873282</v>
+        <v>109.8648418884658</v>
       </c>
       <c r="H29" t="n">
-        <v>21.9427045873282</v>
+        <v>109.8648418884658</v>
       </c>
       <c r="I29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J29" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K29" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6490,25 +6490,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S29" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T29" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U29" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="V29" t="n">
-        <v>820.0808785163064</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="W29" t="n">
-        <v>820.0808785163064</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="X29" t="n">
-        <v>543.0265276662028</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.9970554374318</v>
+        <v>663.9735435886729</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H30" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I30" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>409.2622680873972</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6851405540922</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="O30" t="n">
-        <v>898.564759531413</v>
+        <v>956.0761671793891</v>
       </c>
       <c r="P30" t="n">
         <v>1097.13522936641</v>
@@ -6572,22 +6572,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U30" t="n">
-        <v>1097.13522936641</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V30" t="n">
-        <v>1097.13522936641</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W30" t="n">
-        <v>1097.13522936641</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X30" t="n">
-        <v>890.6083307719874</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.6083307719874</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E31" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F31" t="n">
         <v>21.9427045873282</v>
@@ -6642,31 +6642,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>889.1908336860672</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C32" t="n">
-        <v>889.1908336860672</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D32" t="n">
-        <v>889.1908336860672</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E32" t="n">
-        <v>783.348686962408</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F32" t="n">
-        <v>506.2943361123045</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G32" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I32" t="n">
         <v>21.9427045873282</v>
@@ -6727,25 +6727,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T32" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U32" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V32" t="n">
-        <v>889.1908336860672</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W32" t="n">
-        <v>889.1908336860672</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X32" t="n">
-        <v>889.1908336860672</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y32" t="n">
-        <v>889.1908336860672</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>830.8154377838487</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C33" t="n">
-        <v>658.0623227056658</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D33" t="n">
-        <v>510.4740160646097</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E33" t="n">
-        <v>352.8644870674643</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F33" t="n">
-        <v>207.9086970840812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G33" t="n">
-        <v>207.9086970840812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H33" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I33" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L33" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M33" t="n">
-        <v>688.1965482020685</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N33" t="n">
-        <v>898.564759531413</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O33" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R33" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U33" t="n">
-        <v>830.8154377838487</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V33" t="n">
-        <v>830.8154377838487</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W33" t="n">
-        <v>830.8154377838487</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X33" t="n">
-        <v>830.8154377838487</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y33" t="n">
-        <v>830.8154377838487</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="34">
@@ -6885,22 +6885,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
         <v>21.9427045873282</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.2943361123045</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C35" t="n">
-        <v>506.2943361123045</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D35" t="n">
-        <v>506.2943361123045</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E35" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F35" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G35" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H35" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I35" t="n">
         <v>21.9427045873282</v>
@@ -6961,28 +6961,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S35" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U35" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V35" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W35" t="n">
-        <v>728.6342799752003</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X35" t="n">
-        <v>728.6342799752003</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y35" t="n">
-        <v>728.6342799752003</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>638.0938391053207</v>
+        <v>644.8494452870956</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0938391053207</v>
+        <v>472.0963302089128</v>
       </c>
       <c r="D36" t="n">
-        <v>490.5055324642646</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="E36" t="n">
-        <v>490.5055324642646</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H36" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I36" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L36" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>627.0237902632265</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N36" t="n">
-        <v>898.564759531413</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O36" t="n">
         <v>898.564759531413</v>
@@ -7043,25 +7043,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T36" t="n">
-        <v>1097.13522936641</v>
+        <v>811.891996408656</v>
       </c>
       <c r="U36" t="n">
-        <v>1097.13522936641</v>
+        <v>811.891996408656</v>
       </c>
       <c r="V36" t="n">
-        <v>1097.13522936641</v>
+        <v>811.891996408656</v>
       </c>
       <c r="W36" t="n">
-        <v>844.6207376997432</v>
+        <v>811.891996408656</v>
       </c>
       <c r="X36" t="n">
-        <v>638.0938391053207</v>
+        <v>811.891996408656</v>
       </c>
       <c r="Y36" t="n">
-        <v>638.0938391053207</v>
+        <v>811.891996408656</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>54.20381819178192</v>
       </c>
       <c r="F37" t="n">
         <v>21.9427045873282</v>
@@ -7122,25 +7122,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C38" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D38" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E38" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F38" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
@@ -7207,19 +7207,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="V38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.13522936641</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X38" t="n">
-        <v>853.1057571376389</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y38" t="n">
-        <v>576.0514062875353</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>566.8460953168997</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C39" t="n">
-        <v>566.8460953168997</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D39" t="n">
-        <v>566.8460953168997</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E39" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M39" t="n">
-        <v>548.9545891439176</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6851405540922</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O39" t="n">
-        <v>898.564759531413</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P39" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>1001.483734658237</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T39" t="n">
-        <v>801.0973387912989</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U39" t="n">
-        <v>801.0973387912989</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="V39" t="n">
-        <v>566.8460953168997</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="W39" t="n">
-        <v>566.8460953168997</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="X39" t="n">
-        <v>566.8460953168997</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="Y39" t="n">
-        <v>566.8460953168997</v>
+        <v>352.3053486626563</v>
       </c>
     </row>
     <row r="40">
@@ -7371,10 +7371,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
         <v>21.9427045873282</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>871.9179392690156</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C41" t="n">
-        <v>853.7716936371969</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D41" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E41" t="n">
         <v>299.6629919369898</v>
       </c>
       <c r="F41" t="n">
-        <v>22.60864108688619</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G41" t="n">
         <v>22.60864108688619</v>
@@ -7414,19 +7414,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L41" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N41" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P41" t="n">
         <v>1093.116282134284</v>
@@ -7435,28 +7435,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S41" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T41" t="n">
-        <v>871.9179392690156</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U41" t="n">
-        <v>871.9179392690156</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V41" t="n">
-        <v>871.9179392690156</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W41" t="n">
-        <v>871.9179392690156</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X41" t="n">
-        <v>871.9179392690156</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y41" t="n">
-        <v>871.9179392690156</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.9427045873282</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C42" t="n">
         <v>21.9427045873282</v>
@@ -7499,43 +7499,43 @@
         <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>545.8456222469285</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N42" t="n">
-        <v>817.386591515115</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O42" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P42" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>1001.483734658237</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U42" t="n">
-        <v>774.5572931762155</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V42" t="n">
-        <v>540.3060497018164</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="W42" t="n">
-        <v>287.7915580351497</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="X42" t="n">
-        <v>81.2646594407272</v>
+        <v>455.9706914306502</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.9427045873282</v>
+        <v>250.2422556543006</v>
       </c>
     </row>
     <row r="43">
@@ -7605,7 +7605,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W43" t="n">
         <v>21.9427045873282</v>
@@ -7633,19 +7633,19 @@
         <v>299.6629919369898</v>
       </c>
       <c r="E44" t="n">
-        <v>22.60864108688619</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F44" t="n">
-        <v>22.60864108688619</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G44" t="n">
-        <v>22.60864108688619</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H44" t="n">
-        <v>22.60864108688619</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I44" t="n">
-        <v>22.60864108688619</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
@@ -7657,16 +7657,16 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623907</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
@@ -7684,16 +7684,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V44" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.13522936641</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="X44" t="n">
-        <v>853.7716936371969</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y44" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21.9427045873282</v>
+        <v>409.9830983584062</v>
       </c>
       <c r="C45" t="n">
-        <v>21.9427045873282</v>
+        <v>409.9830983584062</v>
       </c>
       <c r="D45" t="n">
-        <v>21.9427045873282</v>
+        <v>409.9830983584062</v>
       </c>
       <c r="E45" t="n">
-        <v>21.9427045873282</v>
+        <v>409.9830983584062</v>
       </c>
       <c r="F45" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H45" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I45" t="n">
         <v>21.9427045873282</v>
@@ -7736,13 +7736,13 @@
         <v>270.0203090292462</v>
       </c>
       <c r="M45" t="n">
-        <v>359.1441712859057</v>
+        <v>359.1441712859059</v>
       </c>
       <c r="N45" t="n">
-        <v>630.6851405540922</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O45" t="n">
-        <v>898.564759531413</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7757,22 +7757,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994721</v>
       </c>
       <c r="U45" t="n">
-        <v>870.2087878843885</v>
+        <v>896.7488334994721</v>
       </c>
       <c r="V45" t="n">
-        <v>635.9575444099894</v>
+        <v>662.4975900250729</v>
       </c>
       <c r="W45" t="n">
-        <v>383.4430527433227</v>
+        <v>409.9830983584062</v>
       </c>
       <c r="X45" t="n">
-        <v>176.9161541489002</v>
+        <v>409.9830983584062</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.9427045873282</v>
+        <v>409.9830983584062</v>
       </c>
     </row>
     <row r="46">
@@ -7812,7 +7812,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M46" t="n">
         <v>108.7246574309869</v>
@@ -7984,7 +7984,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
-        <v>434.3676631324685</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
         <v>467.4940748325458</v>
@@ -8057,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>253.0514694006589</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155704</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8224,7 +8224,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>467.4940748325459</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
         <v>454.8408013884635</v>
@@ -8294,7 +8294,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
@@ -8303,19 +8303,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155704</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>277.816905905207</v>
+        <v>203.2867471478201</v>
       </c>
       <c r="P6" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8470,7 +8470,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P8" t="n">
-        <v>334.6706564983421</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8537,22 +8537,22 @@
         <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155704</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>409.6168120477987</v>
+        <v>217.8891172417261</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>195.3379737580188</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8692,7 +8692,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740115</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
         <v>434.3676631324684</v>
@@ -8768,19 +8768,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>262.2514961538889</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8947,7 +8947,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863012</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,22 +9005,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>150.7119311045153</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>412.8644904155704</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N15" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
         <v>130.625047228972</v>
@@ -9245,16 +9245,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>412.8644904155704</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N18" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.3379737580188</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9488,10 +9488,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>272.7740099466066</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9956,16 +9956,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L27" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>344.2496456653007</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>195.3379737580186</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10114,7 +10114,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
@@ -10132,7 +10132,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10199,16 +10199,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N30" t="n">
-        <v>351.7176364193258</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>331.2012793855346</v>
+        <v>273.1089484279829</v>
       </c>
       <c r="Q30" t="n">
         <v>136.482229733871</v>
@@ -10427,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>146.606636852111</v>
       </c>
       <c r="N33" t="n">
-        <v>340.5513120381636</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,22 +10664,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>351.0738258308815</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N36" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
         <v>134.395403</v>
@@ -10910,19 +10910,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>412.8644904155703</v>
+        <v>347.1828690086734</v>
       </c>
       <c r="N39" t="n">
-        <v>210.6142818167799</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11147,19 +11147,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>269.0756763194694</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11384,7 +11384,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>228.6047863635229</v>
+        <v>228.6047863635231</v>
       </c>
       <c r="N45" t="n">
         <v>402.3419766228525</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>92.70128833734009</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>82.32092541299585</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>108.8342284136849</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
         <v>407.2938634805408</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -22606,13 +22606,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>202.7043887074998</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -22628,7 +22628,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
@@ -22640,7 +22640,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>127.3504339075546</v>
       </c>
       <c r="H3" t="n">
         <v>110.4625155221328</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>104.1537809005696</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -22725,10 +22725,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>63.6842650835742</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -22761,7 +22761,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497925</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>106.126596917933</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -22846,13 +22846,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>96.57779178956685</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -22865,22 +22865,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>32.10661313628984</v>
       </c>
       <c r="G6" t="n">
-        <v>58.87868783376842</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22956,10 +22956,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.6105342974166</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
         <v>153.7585467974036</v>
@@ -22998,7 +22998,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.4326026497925</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>92.70128833734009</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -23035,13 +23035,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>237.2261708758167</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23086,10 +23086,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>129.272421624686</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>145.2934483255616</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>21.36577719951129</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23278,10 +23278,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>83.32055315287499</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>218.7028951084821</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23342,7 +23342,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -23354,10 +23354,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>127.333645093055</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>51.13049313817405</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,19 +23421,19 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>117.0670640461102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H13" t="n">
-        <v>150.6105342974166</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
         <v>153.7585467974036</v>
@@ -23497,25 +23497,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D14" t="n">
-        <v>82.32092541299585</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E14" t="n">
-        <v>108.8342284136849</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>370.9289938421816</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
-        <v>338.1439033881534</v>
+        <v>96.55472588167004</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23557,13 +23557,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>135.2156897041253</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>91.60372594476524</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>224.6571770672012</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>135.1354836983042</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>71.55979029508744</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
         <v>14.77440971783335</v>
@@ -23746,10 +23746,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H17" t="n">
-        <v>73.74868211661186</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>54.2494141809168</v>
+        <v>109.0573209536676</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>101.5747927675851</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -23831,7 +23831,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>96.7014113232151</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23901,10 +23901,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>135.1354836983042</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>161.6340720089168</v>
@@ -23940,7 +23940,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
@@ -23974,7 +23974,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>269.5618168264722</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
@@ -23983,7 +23983,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H20" t="n">
         <v>338.1439033881534</v>
@@ -24019,25 +24019,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W20" t="n">
-        <v>86.13489572901312</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>45.24587008265065</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24104,19 +24104,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24186,7 +24186,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V22" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24195,7 +24195,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
         <v>82.3209254129959</v>
@@ -24220,16 +24220,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I23" t="n">
-        <v>106.1452301970802</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>164.4348476484182</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
         <v>86.50354346547167</v>
@@ -24338,22 +24338,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>44.95881684231247</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.766076517585</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -24372,10 +24372,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.8895889301081</v>
@@ -24420,7 +24420,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U25" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24451,10 +24451,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>364.4939754452245</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G26" t="n">
         <v>140.5709580622284</v>
@@ -24463,7 +24463,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
         <v>0.6592771345624158</v>
@@ -24502,13 +24502,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W26" t="n">
-        <v>262.8465572170131</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -24524,7 +24524,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -24572,25 +24572,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>16.81139067155252</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>9.458801139478595</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,10 +24609,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.8895889301081</v>
@@ -24657,7 +24657,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24691,19 +24691,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
-        <v>205.224307868124</v>
+        <v>118.8406690745602</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0978942447525</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.03451424554763</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,16 +24812,16 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>44.95881684231239</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>68.18412616544215</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.8895889301081</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
         <v>173.3911476697823</v>
@@ -24925,7 +24925,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>278.3343104988649</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>133.0100561389384</v>
@@ -24937,7 +24937,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
         <v>0.6592771345624158</v>
@@ -24967,7 +24967,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
         <v>222.9651171964204</v>
@@ -24976,10 +24976,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -24998,25 +24998,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
-        <v>12.859726415819</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>50.24743635262979</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S34" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T34" t="n">
         <v>228.3324659915077</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>163.5998655671282</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>125.3959181724593</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25171,10 +25171,10 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
         <v>0.6592771345624158</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
@@ -25216,10 +25216,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>12.61830167802901</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>84.95334518573671</v>
       </c>
       <c r="U36" t="n">
         <v>224.6571770672012</v>
@@ -25295,10 +25295,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -25320,10 +25320,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="G37" t="n">
         <v>167.8895889301081</v>
@@ -25362,7 +25362,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
         <v>228.3324659915077</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -25408,13 +25408,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>10.54786320462352</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X38" t="n">
-        <v>129.272421624686</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>93.07457816109417</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>58.2908924029843</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -25538,7 +25538,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25611,13 +25611,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>349.0203125034421</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>131.7134935662653</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>110.3811539814431</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>144.942416113721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25845,10 +25845,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V43" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25873,13 +25873,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25924,16 +25924,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>54.2494141809168</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>76.24630965895204</v>
       </c>
       <c r="X44" t="n">
         <v>129.9316987592485</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25955,16 +25955,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>92.33551144282882</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>50.24743635262973</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>511008.7105087348</v>
+        <v>511008.7105087347</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>511008.7105087348</v>
+        <v>511008.7105087347</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>511008.7105087346</v>
+        <v>511008.7105087347</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511008.7105087346</v>
+        <v>511008.7105087347</v>
       </c>
     </row>
     <row r="16">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808625</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="C4" t="n">
         <v>17659.22691552231</v>
@@ -26426,10 +26426,10 @@
         <v>17659.22691552232</v>
       </c>
       <c r="E4" t="n">
+        <v>17659.22691552232</v>
+      </c>
+      <c r="F4" t="n">
         <v>17659.22691552231</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17659.22691552232</v>
       </c>
       <c r="G4" t="n">
         <v>17659.22691552232</v>
@@ -26438,16 +26438,16 @@
         <v>17659.22691552231</v>
       </c>
       <c r="I4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="J4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="K4" t="n">
         <v>17659.22691552231</v>
       </c>
       <c r="L4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="M4" t="n">
         <v>17659.22691552232</v>
@@ -26456,10 +26456,10 @@
         <v>17659.22691552231</v>
       </c>
       <c r="O4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="P4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47316.96427210359</v>
+        <v>-59006.09329535949</v>
       </c>
       <c r="C6" t="n">
-        <v>44601.84809563626</v>
+        <v>32912.71907238037</v>
       </c>
       <c r="D6" t="n">
-        <v>44601.84809563623</v>
+        <v>32912.71907238034</v>
       </c>
       <c r="E6" t="n">
-        <v>78229.44809563624</v>
+        <v>66540.31907238033</v>
       </c>
       <c r="F6" t="n">
-        <v>78229.44809563622</v>
+        <v>66540.31907238036</v>
       </c>
       <c r="G6" t="n">
-        <v>78229.44809563622</v>
+        <v>66540.31907238036</v>
       </c>
       <c r="H6" t="n">
-        <v>78229.44809563624</v>
+        <v>66540.31907238036</v>
       </c>
       <c r="I6" t="n">
-        <v>78229.44809563624</v>
+        <v>66540.31907238036</v>
       </c>
       <c r="J6" t="n">
-        <v>6464.735607549999</v>
+        <v>-5224.393415705885</v>
       </c>
       <c r="K6" t="n">
-        <v>78229.44809563627</v>
+        <v>66540.31907238036</v>
       </c>
       <c r="L6" t="n">
-        <v>78229.44809563625</v>
+        <v>66540.31907238036</v>
       </c>
       <c r="M6" t="n">
-        <v>78229.44809563624</v>
+        <v>66540.31907238033</v>
       </c>
       <c r="N6" t="n">
-        <v>78229.44809563624</v>
+        <v>66540.31907238036</v>
       </c>
       <c r="O6" t="n">
-        <v>78229.44809563625</v>
+        <v>66540.31907238036</v>
       </c>
       <c r="P6" t="n">
-        <v>78229.44809563621</v>
+        <v>66540.3190723803</v>
       </c>
     </row>
   </sheetData>
@@ -34704,7 +34704,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
-        <v>204.495408536731</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
         <v>242.9064974359549</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>117.9609491152816</v>
       </c>
       <c r="M3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>242.906497435955</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
@@ -35029,13 +35029,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>138.7855675718737</v>
+        <v>64.25540881448674</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>171.6864323771106</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2184856369543</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
@@ -35266,13 +35266,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>270.5854737144654</v>
+        <v>78.85777890839283</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.8557440241478</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.5236243051554</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
         <v>204.4954085367308</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>134.1933268726389</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O12" t="n">
         <v>270.5854737144654</v>
@@ -35509,7 +35509,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712941</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>140.6484434930818</v>
+        <v>16.31652810451528</v>
       </c>
       <c r="L15" t="n">
         <v>250.5834388302202</v>
@@ -35740,7 +35740,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
@@ -35983,7 +35983,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.8557440241478</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>140.6484434930818</v>
@@ -36208,10 +36208,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>134.1933268726387</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
@@ -36220,7 +36220,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
@@ -36694,7 +36694,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>58.85574402414757</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L29" t="n">
         <v>204.4954085367308</v>
@@ -36852,7 +36852,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
         <v>140.6484434930818</v>
@@ -36919,16 +36919,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N30" t="n">
-        <v>223.6594671380758</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>200.5762321565626</v>
+        <v>142.4839011990109</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
+        <v>8.025953778143093</v>
+      </c>
+      <c r="N33" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N33" t="n">
-        <v>212.4931427569136</v>
-      </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>212.4931427569136</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N36" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
         <v>200.5762321565626</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
+        <v>208.6021859347056</v>
+      </c>
+      <c r="N39" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N39" t="n">
-        <v>82.55611253552989</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>130.4949932455015</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>90.02410328955504</v>
+        <v>90.02410328955521</v>
       </c>
       <c r="N45" t="n">
         <v>274.2838073416025</v>
